--- a/biology/Zoologie/Harpalus_nero/Harpalus_nero.xlsx
+++ b/biology/Zoologie/Harpalus_nero/Harpalus_nero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpalus nero est une espèce fossile d'insecte coléoptères de la famille des Carabidae.
 </t>
@@ -511,18 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpalus nero est décrite en 1874 par le zoologiste français Émile Oustalet (1844-1905)[1],[2].
-Citations et ajouts de fossiles
-L'espèce est citée :
-en 1936 par Piton et Théobald[3]
-en 1937 par Nicolas Théobald[4]
-en 1939 par Piton et Théobald[5][2].
-Fossiles
-Selon Paleobiology Database en 2023, quatre collections de fossiles sont référencées[2]. Ces quatre collections viennent de Céreste, de la localité de Puy-Saint-Jean, sur la commune de Vertaizon, à l'est de Clermont-Ferrand et au nord-est de Mur-sur-Allier, près d'un lac de cratère de l'Oligocène, de la collection M. A. Rudel des carrières de Dallet, aussi du Puy-de-Dôme sur la commune de Mur-sur-Allier, et d'Aix-en-Provence[2].
-Localité type
-La localité type est Aix-en-Provence pour le spécimen A44 de l'Institut géologique de Lyon qui porte une note manuscrite de M. de Serres, « Melolonthia n° 1 »[4],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpalus nero est décrite en 1874 par le zoologiste français Émile Oustalet (1844-1905),.
 </t>
         </is>
       </c>
@@ -548,19 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937 concernant les échantillons F15 (v. figure), 5, 31, 67, 79 de la collection Fliche de l'école nationale des eaux et forêts de Nancy.[6],[note 1] : 
-« Insecte de couleur brun foncé. Tête légèrement rétrécie en arrière ; yeux en saillie sur le côté ; front avec labre très peu échancré ; mandibules assez fortes ; antennes formées d'articles égaux, légèrement dissymétriques. Prothorax échancré à l'avant, bords latéraux convexes, se rapprochant vers l'arrière et passant progressivement au bord postérieur arrondi, donnant à l'ensemble du prothorax une forme presque semi-circulaire. Élytres mal conservés. Abdomen allongé, arrondi à l'arrière, six segments visibles. Pattes en partie conservées ; fémurs forts ; tibias grêles. »[6].
-Dimensions
-La longueur totale est de 11 mm[6].
-Affinités
-« Semble identique au Harpalus nero Oustalet d'Aix. La mauvaise conservation ne permet pas de rechercher les affinités avec la faune actuelle. »[6].
-</t>
+          <t>Citations et ajouts de fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce est citée :
+en 1936 par Piton et Théobald
+en 1937 par Nicolas Théobald
+en 1939 par Piton et Théobald.</t>
         </is>
       </c>
     </row>
@@ -585,10 +592,200 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, quatre collections de fossiles sont référencées. Ces quatre collections viennent de Céreste, de la localité de Puy-Saint-Jean, sur la commune de Vertaizon, à l'est de Clermont-Ferrand et au nord-est de Mur-sur-Allier, près d'un lac de cratère de l'Oligocène, de la collection M. A. Rudel des carrières de Dallet, aussi du Puy-de-Dôme sur la commune de Mur-sur-Allier, et d'Aix-en-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Localité type</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La localité type est Aix-en-Provence pour le spécimen A44 de l'Institut géologique de Lyon qui porte une note manuscrite de M. de Serres, « Melolonthia n° 1 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937 concernant les échantillons F15 (v. figure), 5, 31, 67, 79 de la collection Fliche de l'école nationale des eaux et forêts de Nancy.,[note 1] : 
+« Insecte de couleur brun foncé. Tête légèrement rétrécie en arrière ; yeux en saillie sur le côté ; front avec labre très peu échancré ; mandibules assez fortes ; antennes formées d'articles égaux, légèrement dissymétriques. Prothorax échancré à l'avant, bords latéraux convexes, se rapprochant vers l'arrière et passant progressivement au bord postérieur arrondi, donnant à l'ensemble du prothorax une forme presque semi-circulaire. Élytres mal conservés. Abdomen allongé, arrondi à l'arrière, six segments visibles. Pattes en partie conservées ; fémurs forts ; tibias grêles. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 11 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Semble identique au Harpalus nero Oustalet d'Aix. La mauvaise conservation ne permet pas de rechercher les affinités avec la faune actuelle. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_nero</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Carabidae sont peu nombreux et ne sont pas caractéristiques de la station. Ils vivaient dans le proche voisinage.</t>
